--- a/va_facility_data_2025-02-20/Robert J. Dole Department of Veterans Affairs Medical and Regional Office Center - Facility Data.xlsx"; filename*=UTF-8''Robert%20J.%20Dole%20Department%20of%20Veterans%20Affairs%20Medical%20and%20Regional%20Office%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Robert J. Dole Department of Veterans Affairs Medical and Regional Office Center - Facility Data.xlsx"; filename*=UTF-8''Robert%20J.%20Dole%20Department%20of%20Veterans%20Affairs%20Medical%20and%20Regional%20Office%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rcb195535335340f0aecd94908adec7f0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R815bf6a2defc4a07a24f4005ded5ed87"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R578cea2fd7ee401d93f3907978b6d4d6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9e8489a86d1442c0ab29975f083ca8fb"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcdce592844044b63854bb663ccb80c74"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6341b91fb1d047369d7dc8bc85250129"/>
   </x:sheets>
 </x:workbook>
 </file>
